--- a/biology/Zoologie/Euglossa/Euglossa.xlsx
+++ b/biology/Zoologie/Euglossa/Euglossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euglossa est un genre d'insectes hyménoptères de la famille des Apidae (les abeilles). Comme tous leurs proches, ces espèces sont originaires des Néotropiques et présentent généralement des teintes bleu métallique, vertes, cuivrées ou dorées[réf. nécessaire].
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Euglossa a été créé en 1802 par l'entomologiste français Pierre-André Latreille (1762-1833)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euglossa a été créé en 1802 par l'entomologiste français Pierre-André Latreille (1762-1833).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces sont présentes du Mexique au Paraguay, dans le Nord de l'Argentine, dans l'Ouest du Brésil, à la Jamaïque et à Trinité-et-Tobago[réf. nécessaire]. L'espèce Euglossa dilemma a récemment été introduite en Floride aux États-Unis[réf. nécessaire].
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 décembre 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 décembre 2022) :
 Euglossa adiastola Hinojosa-Díaz, Nemésio &amp; Engel, 2012
 Euglossa alleni Moure, 1968
 Euglossa allosticta Moure, 1969
